--- a/DIPAK/DELETE ORDER DATA.xlsx
+++ b/DIPAK/DELETE ORDER DATA.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="52">
   <si>
     <t>ORDERNUMBER</t>
   </si>
@@ -162,6 +162,36 @@
   </si>
   <si>
     <t>Lakme</t>
+  </si>
+  <si>
+    <t>SSB_1130571</t>
+  </si>
+  <si>
+    <t>SSB_1132252</t>
+  </si>
+  <si>
+    <t>WW</t>
+  </si>
+  <si>
+    <t>CRIMSOUNE CLUB</t>
+  </si>
+  <si>
+    <t>FOOTWEAR</t>
+  </si>
+  <si>
+    <t>PUMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOREVER NEW </t>
+  </si>
+  <si>
+    <t>SSB_1132365</t>
+  </si>
+  <si>
+    <t>ONER</t>
+  </si>
+  <si>
+    <t>SELL OUT</t>
   </si>
 </sst>
 </file>
@@ -275,11 +305,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -322,9 +354,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -347,7 +376,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -709,29 +741,29 @@
   <dimension ref="A1:I186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
-    <col min="2" max="2" width="25.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="17"/>
+    <col min="2" max="2" width="25.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -749,7 +781,7 @@
       <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="22" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -760,7 +792,7 @@
       <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="16">
         <v>45636</v>
       </c>
       <c r="C2" s="10">
@@ -776,19 +808,19 @@
         <v>11</v>
       </c>
       <c r="G2" s="11"/>
-      <c r="H2" s="10">
-        <v>1</v>
-      </c>
-      <c r="I2" s="19" t="s">
+      <c r="H2" s="23">
+        <v>1</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="10">
-        <f t="shared" ref="A3:A25" si="0">A2+1</f>
+        <f t="shared" ref="A3:A35" si="0">A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>45636</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -806,10 +838,10 @@
       <c r="G3" s="11">
         <v>8901030911798</v>
       </c>
-      <c r="H3" s="10">
-        <v>1</v>
-      </c>
-      <c r="I3" s="19" t="s">
+      <c r="H3" s="23">
+        <v>1</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -818,7 +850,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>45636</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -836,10 +868,10 @@
       <c r="G4" s="6">
         <v>8901030825132</v>
       </c>
-      <c r="H4" s="10">
-        <v>1</v>
-      </c>
-      <c r="I4" s="19" t="s">
+      <c r="H4" s="23">
+        <v>1</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -848,7 +880,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>45636</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -866,10 +898,10 @@
       <c r="G5" s="6">
         <v>8901030911798</v>
       </c>
-      <c r="H5" s="10">
-        <v>1</v>
-      </c>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="23">
+        <v>1</v>
+      </c>
+      <c r="I5" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -878,7 +910,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>45636</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -896,10 +928,10 @@
       <c r="G6" s="6">
         <v>8901030825163</v>
       </c>
-      <c r="H6" s="10">
-        <v>1</v>
-      </c>
-      <c r="I6" s="19" t="s">
+      <c r="H6" s="23">
+        <v>1</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -908,7 +940,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>45636</v>
       </c>
       <c r="C7" s="4">
@@ -926,10 +958,10 @@
       <c r="G7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="10">
-        <v>1</v>
-      </c>
-      <c r="I7" s="13" t="s">
+      <c r="H7" s="23">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -938,7 +970,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="16">
         <v>45636</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -956,10 +988,10 @@
       <c r="G8" s="6">
         <v>8901030825163</v>
       </c>
-      <c r="H8" s="10">
-        <v>1</v>
-      </c>
-      <c r="I8" s="19" t="s">
+      <c r="H8" s="23">
+        <v>1</v>
+      </c>
+      <c r="I8" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -968,7 +1000,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>45636</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -986,10 +1018,10 @@
       <c r="G9" s="6">
         <v>8901030732775</v>
       </c>
-      <c r="H9" s="10">
-        <v>1</v>
-      </c>
-      <c r="I9" s="19" t="s">
+      <c r="H9" s="23">
+        <v>1</v>
+      </c>
+      <c r="I9" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -998,7 +1030,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>45637</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1016,10 +1048,10 @@
       <c r="G10" s="6">
         <v>8901030825132</v>
       </c>
-      <c r="H10" s="10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="19" t="s">
+      <c r="H10" s="23">
+        <v>1</v>
+      </c>
+      <c r="I10" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1028,7 +1060,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>45637</v>
       </c>
       <c r="C11" s="7">
@@ -1046,10 +1078,10 @@
       <c r="G11" s="6">
         <v>8903606449087</v>
       </c>
-      <c r="H11" s="10">
-        <v>1</v>
-      </c>
-      <c r="I11" s="13" t="s">
+      <c r="H11" s="23">
+        <v>1</v>
+      </c>
+      <c r="I11" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1058,7 +1090,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>45637</v>
       </c>
       <c r="C12" s="8">
@@ -1076,10 +1108,10 @@
       <c r="G12" s="6">
         <v>8905631532536</v>
       </c>
-      <c r="H12" s="10">
-        <v>1</v>
-      </c>
-      <c r="I12" s="13" t="s">
+      <c r="H12" s="23">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1088,7 +1120,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="16">
         <v>45638</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -1106,10 +1138,10 @@
       <c r="G13" s="6">
         <v>8901030985355</v>
       </c>
-      <c r="H13" s="10">
-        <v>1</v>
-      </c>
-      <c r="I13" s="19" t="s">
+      <c r="H13" s="23">
+        <v>1</v>
+      </c>
+      <c r="I13" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1118,7 +1150,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="16">
         <v>45638</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -1136,10 +1168,10 @@
       <c r="G14" s="6">
         <v>8901030985362</v>
       </c>
-      <c r="H14" s="10">
-        <v>1</v>
-      </c>
-      <c r="I14" s="19" t="s">
+      <c r="H14" s="23">
+        <v>1</v>
+      </c>
+      <c r="I14" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1148,7 +1180,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>45638</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -1166,10 +1198,10 @@
       <c r="G15" s="6">
         <v>8901030825163</v>
       </c>
-      <c r="H15" s="10">
-        <v>1</v>
-      </c>
-      <c r="I15" s="19" t="s">
+      <c r="H15" s="23">
+        <v>1</v>
+      </c>
+      <c r="I15" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1178,7 +1210,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="16">
         <v>45638</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -1196,10 +1228,10 @@
       <c r="G16" s="6">
         <v>8901030732775</v>
       </c>
-      <c r="H16" s="10">
-        <v>1</v>
-      </c>
-      <c r="I16" s="19" t="s">
+      <c r="H16" s="23">
+        <v>1</v>
+      </c>
+      <c r="I16" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1208,10 +1240,10 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="16">
         <v>45638</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -1223,13 +1255,13 @@
       <c r="F17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="20">
         <v>8901030910913</v>
       </c>
-      <c r="H17" s="10">
-        <v>1</v>
-      </c>
-      <c r="I17" s="19" t="s">
+      <c r="H17" s="23">
+        <v>1</v>
+      </c>
+      <c r="I17" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1238,7 +1270,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="16">
         <v>45638</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -1256,10 +1288,10 @@
       <c r="G18" s="6">
         <v>8901030640582</v>
       </c>
-      <c r="H18" s="10">
-        <v>1</v>
-      </c>
-      <c r="I18" s="19" t="s">
+      <c r="H18" s="23">
+        <v>1</v>
+      </c>
+      <c r="I18" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1268,7 +1300,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="16">
         <v>45638</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -1286,10 +1318,10 @@
       <c r="G19" s="6">
         <v>8901030986079</v>
       </c>
-      <c r="H19" s="10">
-        <v>1</v>
-      </c>
-      <c r="I19" s="19" t="s">
+      <c r="H19" s="23">
+        <v>1</v>
+      </c>
+      <c r="I19" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1298,7 +1330,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="16">
         <v>45638</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -1316,10 +1348,10 @@
       <c r="G20" s="6">
         <v>8901030736575</v>
       </c>
-      <c r="H20" s="10">
-        <v>1</v>
-      </c>
-      <c r="I20" s="19" t="s">
+      <c r="H20" s="23">
+        <v>1</v>
+      </c>
+      <c r="I20" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1328,7 +1360,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="16">
         <v>45638</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -1346,10 +1378,10 @@
       <c r="G21" s="6">
         <v>8901030986079</v>
       </c>
-      <c r="H21" s="10">
-        <v>1</v>
-      </c>
-      <c r="I21" s="19" t="s">
+      <c r="H21" s="23">
+        <v>1</v>
+      </c>
+      <c r="I21" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1358,7 +1390,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="16">
         <v>45638</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -1376,10 +1408,10 @@
       <c r="G22" s="6">
         <v>773602345830</v>
       </c>
-      <c r="H22" s="10">
-        <v>1</v>
-      </c>
-      <c r="I22" s="23" t="s">
+      <c r="H22" s="23">
+        <v>1</v>
+      </c>
+      <c r="I22" s="18" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1388,7 +1420,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="16">
         <v>45638</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -1406,10 +1438,10 @@
       <c r="G23" s="6">
         <v>8901030825163</v>
       </c>
-      <c r="H23" s="10">
-        <v>1</v>
-      </c>
-      <c r="I23" s="19" t="s">
+      <c r="H23" s="23">
+        <v>1</v>
+      </c>
+      <c r="I23" s="18" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1418,7 +1450,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="16">
         <v>45638</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -1436,10 +1468,10 @@
       <c r="G24" s="6">
         <v>6928820029589</v>
       </c>
-      <c r="H24" s="10">
-        <v>1</v>
-      </c>
-      <c r="I24" s="23" t="s">
+      <c r="H24" s="23">
+        <v>1</v>
+      </c>
+      <c r="I24" s="18" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1448,7 +1480,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="16">
         <v>45638</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -1466,219 +1498,429 @@
       <c r="G25" s="6">
         <v>8901030825132</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="23">
         <v>2</v>
       </c>
-      <c r="I25" s="19" t="s">
+      <c r="I25" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="B26"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="10"/>
+      <c r="A26" s="10">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="16">
+        <v>45640</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="6">
+        <v>773602345830</v>
+      </c>
+      <c r="H26" s="23">
+        <v>1</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="B27"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="10"/>
+      <c r="A27" s="10">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="16">
+        <v>45640</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="6">
+        <v>8901030825163</v>
+      </c>
+      <c r="H27" s="23">
+        <v>1</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="B28"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="10"/>
+      <c r="A28" s="10">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="16">
+        <v>45640</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="6">
+        <v>8901030825163</v>
+      </c>
+      <c r="H28" s="23">
+        <v>2</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="B29"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="10"/>
+      <c r="A29" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="16">
+        <v>45640</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="6">
+        <v>8901030736575</v>
+      </c>
+      <c r="H29" s="23">
+        <v>1</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="B30"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="10"/>
+      <c r="A30" s="10">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="16">
+        <v>45640</v>
+      </c>
+      <c r="C30" s="10">
+        <v>438258297</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="6">
+        <v>8905600520182</v>
+      </c>
+      <c r="H30" s="23">
+        <v>1</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="B31"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="10"/>
+      <c r="A31" s="10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="16">
+        <v>45640</v>
+      </c>
+      <c r="C31" s="10">
+        <v>438284418</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="6">
+        <v>4067979524117</v>
+      </c>
+      <c r="H31" s="23">
+        <v>1</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="B32"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="2:8">
+      <c r="A32" s="10">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="16">
+        <v>45640</v>
+      </c>
+      <c r="C32" s="3">
+        <v>438368472</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="6">
+        <v>9360454385957</v>
+      </c>
+      <c r="H32" s="23">
+        <v>1</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="16">
+        <v>45640</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="6">
+        <v>8901030985362</v>
+      </c>
+      <c r="H33" s="23">
+        <v>1</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="10">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="16">
+        <v>45640</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="6">
+        <v>8901030910913</v>
+      </c>
+      <c r="H34" s="23">
+        <v>1</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="10">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="16">
+        <v>45640</v>
+      </c>
+      <c r="C35" s="3">
+        <v>438467838</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="6">
+        <v>8903982715769</v>
+      </c>
+      <c r="H35" s="23">
+        <v>1</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="2:8">
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="2:8">
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="1:9">
       <c r="B38"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="39" spans="2:8">
+      <c r="H38" s="23"/>
+    </row>
+    <row r="39" spans="1:9">
       <c r="B39"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="2:8">
+      <c r="H39" s="23"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="10"/>
-    </row>
-    <row r="41" spans="2:8">
+      <c r="H40" s="23"/>
+    </row>
+    <row r="41" spans="1:9">
       <c r="B41"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="3"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="10"/>
-    </row>
-    <row r="42" spans="2:8">
+      <c r="H41" s="23"/>
+    </row>
+    <row r="42" spans="1:9">
       <c r="B42"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="3"/>
       <c r="G42" s="6"/>
-      <c r="H42" s="10"/>
-    </row>
-    <row r="43" spans="2:8">
+      <c r="H42" s="23"/>
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="3"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" spans="2:8">
+      <c r="H43" s="23"/>
+    </row>
+    <row r="44" spans="1:9">
       <c r="B44"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="3"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="10"/>
-    </row>
-    <row r="45" spans="2:8">
+      <c r="H44" s="23"/>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="3"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="2:8">
+      <c r="H45" s="23"/>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="3"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="2:8">
+      <c r="H46" s="23"/>
+    </row>
+    <row r="47" spans="1:9">
       <c r="B47"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="3"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="10"/>
-    </row>
-    <row r="48" spans="2:8">
+      <c r="H47" s="23"/>
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="3"/>
       <c r="G48" s="6"/>
-      <c r="H48" s="10"/>
+      <c r="H48" s="23"/>
     </row>
     <row r="49" spans="2:8">
       <c r="B49"/>
@@ -1687,7 +1929,7 @@
       <c r="E49" s="10"/>
       <c r="F49" s="3"/>
       <c r="G49" s="6"/>
-      <c r="H49" s="10"/>
+      <c r="H49" s="23"/>
     </row>
     <row r="50" spans="2:8">
       <c r="B50"/>
@@ -1696,7 +1938,7 @@
       <c r="E50" s="10"/>
       <c r="F50" s="3"/>
       <c r="G50" s="6"/>
-      <c r="H50" s="10"/>
+      <c r="H50" s="23"/>
     </row>
     <row r="51" spans="2:8">
       <c r="B51"/>
@@ -1705,7 +1947,7 @@
       <c r="E51" s="10"/>
       <c r="F51" s="3"/>
       <c r="G51" s="6"/>
-      <c r="H51" s="10"/>
+      <c r="H51" s="23"/>
     </row>
     <row r="52" spans="2:8">
       <c r="B52"/>
@@ -1714,7 +1956,7 @@
       <c r="E52" s="10"/>
       <c r="F52" s="3"/>
       <c r="G52" s="6"/>
-      <c r="H52" s="10"/>
+      <c r="H52" s="23"/>
     </row>
     <row r="53" spans="2:8">
       <c r="B53"/>
@@ -1723,7 +1965,7 @@
       <c r="E53" s="10"/>
       <c r="F53" s="3"/>
       <c r="G53" s="6"/>
-      <c r="H53" s="10"/>
+      <c r="H53" s="23"/>
     </row>
     <row r="54" spans="2:8">
       <c r="B54"/>
@@ -1732,7 +1974,7 @@
       <c r="E54" s="10"/>
       <c r="F54" s="3"/>
       <c r="G54" s="6"/>
-      <c r="H54" s="10"/>
+      <c r="H54" s="23"/>
     </row>
     <row r="55" spans="2:8">
       <c r="B55"/>
@@ -1741,7 +1983,7 @@
       <c r="E55" s="10"/>
       <c r="F55" s="3"/>
       <c r="G55" s="6"/>
-      <c r="H55" s="10"/>
+      <c r="H55" s="23"/>
     </row>
     <row r="56" spans="2:8">
       <c r="B56"/>
@@ -1750,7 +1992,7 @@
       <c r="E56" s="10"/>
       <c r="F56" s="3"/>
       <c r="G56" s="6"/>
-      <c r="H56" s="10"/>
+      <c r="H56" s="23"/>
     </row>
     <row r="57" spans="2:8">
       <c r="B57"/>
@@ -1759,7 +2001,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="3"/>
       <c r="G57" s="6"/>
-      <c r="H57" s="10"/>
+      <c r="H57" s="23"/>
     </row>
     <row r="58" spans="2:8">
       <c r="B58"/>
@@ -1768,7 +2010,7 @@
       <c r="E58" s="10"/>
       <c r="F58" s="3"/>
       <c r="G58" s="6"/>
-      <c r="H58" s="10"/>
+      <c r="H58" s="23"/>
     </row>
     <row r="59" spans="2:8">
       <c r="B59"/>
@@ -1777,7 +2019,7 @@
       <c r="E59" s="10"/>
       <c r="F59" s="3"/>
       <c r="G59" s="6"/>
-      <c r="H59" s="10"/>
+      <c r="H59" s="23"/>
     </row>
     <row r="60" spans="2:8">
       <c r="B60"/>
@@ -1786,7 +2028,7 @@
       <c r="E60" s="10"/>
       <c r="F60" s="3"/>
       <c r="G60" s="6"/>
-      <c r="H60" s="10"/>
+      <c r="H60" s="23"/>
     </row>
     <row r="61" spans="2:8">
       <c r="B61"/>
@@ -1795,7 +2037,7 @@
       <c r="E61" s="10"/>
       <c r="F61" s="3"/>
       <c r="G61" s="6"/>
-      <c r="H61" s="10"/>
+      <c r="H61" s="23"/>
     </row>
     <row r="62" spans="2:8">
       <c r="B62"/>
@@ -1804,7 +2046,7 @@
       <c r="E62" s="10"/>
       <c r="F62" s="3"/>
       <c r="G62" s="6"/>
-      <c r="H62" s="10"/>
+      <c r="H62" s="23"/>
     </row>
     <row r="63" spans="2:8">
       <c r="B63"/>
@@ -1813,7 +2055,7 @@
       <c r="E63" s="10"/>
       <c r="F63" s="3"/>
       <c r="G63" s="6"/>
-      <c r="H63" s="10"/>
+      <c r="H63" s="23"/>
     </row>
     <row r="64" spans="2:8">
       <c r="B64"/>
@@ -1822,7 +2064,7 @@
       <c r="E64" s="10"/>
       <c r="F64" s="3"/>
       <c r="G64" s="6"/>
-      <c r="H64" s="10"/>
+      <c r="H64" s="23"/>
     </row>
     <row r="65" spans="2:9">
       <c r="B65"/>
@@ -1831,17 +2073,17 @@
       <c r="E65" s="10"/>
       <c r="F65" s="3"/>
       <c r="G65" s="6"/>
-      <c r="H65" s="10"/>
+      <c r="H65" s="23"/>
     </row>
     <row r="66" spans="2:9">
-      <c r="B66" s="17"/>
+      <c r="B66" s="16"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
       <c r="F66" s="3"/>
       <c r="G66" s="6"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="14" t="s">
+      <c r="H66" s="23"/>
+      <c r="I66" s="13" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1852,7 +2094,7 @@
       <c r="E67" s="10"/>
       <c r="F67" s="3"/>
       <c r="G67" s="6"/>
-      <c r="H67" s="10"/>
+      <c r="H67" s="23"/>
     </row>
     <row r="68" spans="2:9">
       <c r="B68"/>
@@ -1861,7 +2103,7 @@
       <c r="E68" s="10"/>
       <c r="F68" s="3"/>
       <c r="G68" s="6"/>
-      <c r="H68" s="10"/>
+      <c r="H68" s="23"/>
     </row>
     <row r="69" spans="2:9">
       <c r="B69"/>
@@ -1870,7 +2112,7 @@
       <c r="E69" s="10"/>
       <c r="F69" s="3"/>
       <c r="G69" s="6"/>
-      <c r="H69" s="10"/>
+      <c r="H69" s="23"/>
     </row>
     <row r="70" spans="2:9">
       <c r="B70"/>
@@ -1879,7 +2121,7 @@
       <c r="E70" s="10"/>
       <c r="F70" s="3"/>
       <c r="G70" s="6"/>
-      <c r="H70" s="10"/>
+      <c r="H70" s="23"/>
     </row>
     <row r="71" spans="2:9">
       <c r="B71"/>
@@ -1888,7 +2130,7 @@
       <c r="E71" s="10"/>
       <c r="F71" s="3"/>
       <c r="G71" s="6"/>
-      <c r="H71" s="10"/>
+      <c r="H71" s="23"/>
     </row>
     <row r="72" spans="2:9">
       <c r="B72"/>
@@ -1897,7 +2139,7 @@
       <c r="E72" s="10"/>
       <c r="F72" s="3"/>
       <c r="G72" s="6"/>
-      <c r="H72" s="10"/>
+      <c r="H72" s="23"/>
     </row>
     <row r="73" spans="2:9">
       <c r="B73"/>
@@ -1906,7 +2148,7 @@
       <c r="E73" s="10"/>
       <c r="F73" s="3"/>
       <c r="G73" s="6"/>
-      <c r="H73" s="10"/>
+      <c r="H73" s="23"/>
     </row>
     <row r="74" spans="2:9">
       <c r="B74"/>
@@ -1915,7 +2157,7 @@
       <c r="E74" s="10"/>
       <c r="F74" s="3"/>
       <c r="G74" s="6"/>
-      <c r="H74" s="10"/>
+      <c r="H74" s="23"/>
     </row>
     <row r="75" spans="2:9">
       <c r="B75"/>
@@ -1924,7 +2166,7 @@
       <c r="E75" s="10"/>
       <c r="F75" s="3"/>
       <c r="G75" s="6"/>
-      <c r="H75" s="10"/>
+      <c r="H75" s="23"/>
     </row>
     <row r="76" spans="2:9">
       <c r="B76"/>
@@ -1933,7 +2175,7 @@
       <c r="E76" s="10"/>
       <c r="F76" s="3"/>
       <c r="G76" s="6"/>
-      <c r="H76" s="10"/>
+      <c r="H76" s="23"/>
     </row>
     <row r="77" spans="2:9">
       <c r="B77"/>
@@ -1942,7 +2184,7 @@
       <c r="E77" s="10"/>
       <c r="F77" s="3"/>
       <c r="G77" s="6"/>
-      <c r="H77" s="10"/>
+      <c r="H77" s="23"/>
     </row>
     <row r="78" spans="2:9">
       <c r="B78"/>
@@ -1951,7 +2193,7 @@
       <c r="E78" s="10"/>
       <c r="F78" s="3"/>
       <c r="G78" s="6"/>
-      <c r="H78" s="10"/>
+      <c r="H78" s="23"/>
     </row>
     <row r="79" spans="2:9">
       <c r="B79"/>
@@ -1960,7 +2202,7 @@
       <c r="E79" s="10"/>
       <c r="F79" s="3"/>
       <c r="G79" s="6"/>
-      <c r="H79" s="10"/>
+      <c r="H79" s="23"/>
     </row>
     <row r="80" spans="2:9">
       <c r="B80"/>
@@ -1969,7 +2211,7 @@
       <c r="E80" s="10"/>
       <c r="F80" s="3"/>
       <c r="G80" s="6"/>
-      <c r="H80" s="10"/>
+      <c r="H80" s="23"/>
     </row>
     <row r="81" spans="2:8">
       <c r="B81"/>
@@ -1978,7 +2220,7 @@
       <c r="E81" s="10"/>
       <c r="F81" s="3"/>
       <c r="G81" s="6"/>
-      <c r="H81" s="10"/>
+      <c r="H81" s="23"/>
     </row>
     <row r="82" spans="2:8">
       <c r="B82"/>
@@ -1987,7 +2229,7 @@
       <c r="E82" s="10"/>
       <c r="F82" s="3"/>
       <c r="G82" s="6"/>
-      <c r="H82" s="10"/>
+      <c r="H82" s="23"/>
     </row>
     <row r="83" spans="2:8">
       <c r="B83"/>
@@ -1996,7 +2238,7 @@
       <c r="E83" s="10"/>
       <c r="F83" s="3"/>
       <c r="G83" s="6"/>
-      <c r="H83" s="10"/>
+      <c r="H83" s="23"/>
     </row>
     <row r="84" spans="2:8">
       <c r="B84"/>
@@ -2005,7 +2247,7 @@
       <c r="E84" s="10"/>
       <c r="F84" s="3"/>
       <c r="G84" s="6"/>
-      <c r="H84" s="10"/>
+      <c r="H84" s="23"/>
     </row>
     <row r="85" spans="2:8">
       <c r="B85"/>
@@ -2014,7 +2256,7 @@
       <c r="E85" s="10"/>
       <c r="F85" s="3"/>
       <c r="G85" s="6"/>
-      <c r="H85" s="10"/>
+      <c r="H85" s="23"/>
     </row>
     <row r="86" spans="2:8">
       <c r="B86"/>
@@ -2023,7 +2265,7 @@
       <c r="E86" s="10"/>
       <c r="F86" s="3"/>
       <c r="G86" s="6"/>
-      <c r="H86" s="10"/>
+      <c r="H86" s="23"/>
     </row>
     <row r="87" spans="2:8">
       <c r="B87"/>
@@ -2032,7 +2274,7 @@
       <c r="E87" s="10"/>
       <c r="F87" s="3"/>
       <c r="G87" s="6"/>
-      <c r="H87" s="10"/>
+      <c r="H87" s="23"/>
     </row>
     <row r="88" spans="2:8">
       <c r="B88"/>
@@ -2041,7 +2283,7 @@
       <c r="E88" s="10"/>
       <c r="F88" s="3"/>
       <c r="G88" s="6"/>
-      <c r="H88" s="10"/>
+      <c r="H88" s="23"/>
     </row>
     <row r="89" spans="2:8">
       <c r="B89"/>
@@ -2050,7 +2292,7 @@
       <c r="E89" s="10"/>
       <c r="F89" s="3"/>
       <c r="G89" s="6"/>
-      <c r="H89" s="10"/>
+      <c r="H89" s="23"/>
     </row>
     <row r="90" spans="2:8">
       <c r="B90"/>
@@ -2059,7 +2301,7 @@
       <c r="E90" s="10"/>
       <c r="F90" s="3"/>
       <c r="G90" s="6"/>
-      <c r="H90" s="10"/>
+      <c r="H90" s="23"/>
     </row>
     <row r="91" spans="2:8">
       <c r="B91"/>
@@ -2068,7 +2310,7 @@
       <c r="E91" s="10"/>
       <c r="F91" s="3"/>
       <c r="G91" s="6"/>
-      <c r="H91" s="10"/>
+      <c r="H91" s="23"/>
     </row>
     <row r="92" spans="2:8">
       <c r="B92"/>
@@ -2077,7 +2319,7 @@
       <c r="E92" s="10"/>
       <c r="F92" s="3"/>
       <c r="G92" s="6"/>
-      <c r="H92" s="10"/>
+      <c r="H92" s="23"/>
     </row>
     <row r="93" spans="2:8">
       <c r="B93"/>
@@ -2086,7 +2328,7 @@
       <c r="E93" s="10"/>
       <c r="F93" s="3"/>
       <c r="G93" s="6"/>
-      <c r="H93" s="10"/>
+      <c r="H93" s="23"/>
     </row>
     <row r="94" spans="2:8">
       <c r="B94"/>
@@ -2095,7 +2337,7 @@
       <c r="E94" s="10"/>
       <c r="F94" s="3"/>
       <c r="G94" s="6"/>
-      <c r="H94" s="10"/>
+      <c r="H94" s="23"/>
     </row>
     <row r="95" spans="2:8">
       <c r="B95"/>
@@ -2104,7 +2346,7 @@
       <c r="E95" s="10"/>
       <c r="F95" s="3"/>
       <c r="G95" s="6"/>
-      <c r="H95" s="10"/>
+      <c r="H95" s="23"/>
     </row>
     <row r="96" spans="2:8">
       <c r="B96"/>
@@ -2113,7 +2355,7 @@
       <c r="E96" s="10"/>
       <c r="F96" s="3"/>
       <c r="G96" s="6"/>
-      <c r="H96" s="10"/>
+      <c r="H96" s="23"/>
     </row>
     <row r="97" spans="2:9">
       <c r="B97"/>
@@ -2122,41 +2364,41 @@
       <c r="E97" s="10"/>
       <c r="F97" s="3"/>
       <c r="G97" s="6"/>
-      <c r="H97" s="10"/>
+      <c r="H97" s="23"/>
     </row>
     <row r="98" spans="2:9">
-      <c r="B98" s="17"/>
+      <c r="B98" s="16"/>
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
       <c r="F98" s="3"/>
       <c r="G98" s="6"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="14" t="s">
+      <c r="H98" s="23"/>
+      <c r="I98" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="99" spans="2:9">
-      <c r="B99" s="17"/>
+      <c r="B99" s="16"/>
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
       <c r="E99" s="10"/>
       <c r="F99" s="3"/>
       <c r="G99" s="6"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="14" t="s">
+      <c r="H99" s="23"/>
+      <c r="I99" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="100" spans="2:9">
-      <c r="B100" s="17"/>
+      <c r="B100" s="16"/>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
       <c r="E100" s="10"/>
       <c r="F100" s="3"/>
       <c r="G100" s="6"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="14" t="s">
+      <c r="H100" s="23"/>
+      <c r="I100" s="13" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2167,7 +2409,7 @@
       <c r="E101" s="10"/>
       <c r="F101" s="3"/>
       <c r="G101" s="6"/>
-      <c r="H101" s="10"/>
+      <c r="H101" s="23"/>
     </row>
     <row r="102" spans="2:9">
       <c r="B102"/>
@@ -2176,7 +2418,7 @@
       <c r="E102" s="10"/>
       <c r="F102" s="3"/>
       <c r="G102" s="6"/>
-      <c r="H102" s="10"/>
+      <c r="H102" s="23"/>
     </row>
     <row r="103" spans="2:9">
       <c r="B103"/>
@@ -2185,7 +2427,7 @@
       <c r="E103" s="10"/>
       <c r="F103" s="3"/>
       <c r="G103" s="6"/>
-      <c r="H103" s="10"/>
+      <c r="H103" s="23"/>
     </row>
     <row r="104" spans="2:9">
       <c r="B104"/>
@@ -2194,7 +2436,7 @@
       <c r="E104" s="10"/>
       <c r="F104" s="3"/>
       <c r="G104" s="6"/>
-      <c r="H104" s="10"/>
+      <c r="H104" s="23"/>
     </row>
     <row r="105" spans="2:9">
       <c r="B105"/>
@@ -2203,7 +2445,7 @@
       <c r="E105" s="10"/>
       <c r="F105" s="3"/>
       <c r="G105" s="6"/>
-      <c r="H105" s="10"/>
+      <c r="H105" s="23"/>
     </row>
     <row r="106" spans="2:9">
       <c r="B106"/>
@@ -2212,7 +2454,7 @@
       <c r="E106" s="10"/>
       <c r="F106" s="3"/>
       <c r="G106" s="6"/>
-      <c r="H106" s="10"/>
+      <c r="H106" s="23"/>
     </row>
     <row r="107" spans="2:9">
       <c r="B107"/>
@@ -2221,7 +2463,7 @@
       <c r="E107" s="10"/>
       <c r="F107" s="3"/>
       <c r="G107" s="6"/>
-      <c r="H107" s="10"/>
+      <c r="H107" s="23"/>
     </row>
     <row r="108" spans="2:9">
       <c r="B108"/>
@@ -2230,7 +2472,7 @@
       <c r="E108" s="10"/>
       <c r="F108" s="3"/>
       <c r="G108" s="6"/>
-      <c r="H108" s="10"/>
+      <c r="H108" s="23"/>
     </row>
     <row r="109" spans="2:9">
       <c r="B109"/>
@@ -2239,7 +2481,7 @@
       <c r="E109" s="10"/>
       <c r="F109" s="3"/>
       <c r="G109" s="6"/>
-      <c r="H109" s="10"/>
+      <c r="H109" s="23"/>
     </row>
     <row r="110" spans="2:9">
       <c r="B110"/>
@@ -2248,7 +2490,7 @@
       <c r="E110" s="10"/>
       <c r="F110" s="3"/>
       <c r="G110" s="6"/>
-      <c r="H110" s="10"/>
+      <c r="H110" s="23"/>
     </row>
     <row r="111" spans="2:9">
       <c r="B111"/>
@@ -2257,7 +2499,7 @@
       <c r="E111" s="10"/>
       <c r="F111" s="3"/>
       <c r="G111" s="6"/>
-      <c r="H111" s="10"/>
+      <c r="H111" s="23"/>
     </row>
     <row r="112" spans="2:9">
       <c r="B112"/>
@@ -2266,7 +2508,7 @@
       <c r="E112" s="10"/>
       <c r="F112" s="3"/>
       <c r="G112" s="6"/>
-      <c r="H112" s="10"/>
+      <c r="H112" s="23"/>
     </row>
     <row r="113" spans="2:8">
       <c r="B113"/>
@@ -2275,7 +2517,7 @@
       <c r="E113" s="10"/>
       <c r="F113" s="3"/>
       <c r="G113" s="6"/>
-      <c r="H113" s="10"/>
+      <c r="H113" s="23"/>
     </row>
     <row r="114" spans="2:8">
       <c r="B114"/>
@@ -2284,7 +2526,7 @@
       <c r="E114" s="10"/>
       <c r="F114" s="3"/>
       <c r="G114" s="6"/>
-      <c r="H114" s="10"/>
+      <c r="H114" s="23"/>
     </row>
     <row r="115" spans="2:8">
       <c r="B115"/>
@@ -2293,7 +2535,7 @@
       <c r="E115" s="10"/>
       <c r="F115" s="3"/>
       <c r="G115" s="6"/>
-      <c r="H115" s="10"/>
+      <c r="H115" s="23"/>
     </row>
     <row r="116" spans="2:8">
       <c r="B116"/>
@@ -2302,7 +2544,7 @@
       <c r="E116" s="10"/>
       <c r="F116" s="3"/>
       <c r="G116" s="6"/>
-      <c r="H116" s="10"/>
+      <c r="H116" s="23"/>
     </row>
     <row r="117" spans="2:8">
       <c r="B117"/>
@@ -2311,7 +2553,7 @@
       <c r="E117" s="10"/>
       <c r="F117" s="3"/>
       <c r="G117" s="6"/>
-      <c r="H117" s="10"/>
+      <c r="H117" s="23"/>
     </row>
     <row r="118" spans="2:8">
       <c r="B118"/>
@@ -2320,7 +2562,7 @@
       <c r="E118" s="10"/>
       <c r="F118" s="3"/>
       <c r="G118" s="6"/>
-      <c r="H118" s="10"/>
+      <c r="H118" s="23"/>
     </row>
     <row r="119" spans="2:8">
       <c r="B119"/>
@@ -2329,7 +2571,7 @@
       <c r="E119" s="10"/>
       <c r="F119" s="3"/>
       <c r="G119" s="6"/>
-      <c r="H119" s="10"/>
+      <c r="H119" s="23"/>
     </row>
     <row r="120" spans="2:8">
       <c r="B120"/>
@@ -2338,7 +2580,7 @@
       <c r="E120" s="10"/>
       <c r="F120" s="3"/>
       <c r="G120" s="6"/>
-      <c r="H120" s="10"/>
+      <c r="H120" s="23"/>
     </row>
     <row r="121" spans="2:8">
       <c r="B121"/>
@@ -2347,7 +2589,7 @@
       <c r="E121" s="10"/>
       <c r="F121" s="3"/>
       <c r="G121" s="6"/>
-      <c r="H121" s="10"/>
+      <c r="H121" s="23"/>
     </row>
     <row r="122" spans="2:8">
       <c r="B122"/>
@@ -2356,7 +2598,7 @@
       <c r="E122" s="10"/>
       <c r="F122" s="3"/>
       <c r="G122" s="6"/>
-      <c r="H122" s="10"/>
+      <c r="H122" s="23"/>
     </row>
     <row r="123" spans="2:8">
       <c r="B123"/>
@@ -2365,7 +2607,7 @@
       <c r="E123" s="10"/>
       <c r="F123" s="3"/>
       <c r="G123" s="6"/>
-      <c r="H123" s="10"/>
+      <c r="H123" s="23"/>
     </row>
     <row r="124" spans="2:8">
       <c r="B124"/>
@@ -2374,7 +2616,7 @@
       <c r="E124" s="10"/>
       <c r="F124" s="3"/>
       <c r="G124" s="6"/>
-      <c r="H124" s="10"/>
+      <c r="H124" s="23"/>
     </row>
     <row r="125" spans="2:8">
       <c r="B125"/>
@@ -2383,7 +2625,7 @@
       <c r="E125" s="10"/>
       <c r="F125" s="3"/>
       <c r="G125" s="6"/>
-      <c r="H125" s="10"/>
+      <c r="H125" s="23"/>
     </row>
     <row r="126" spans="2:8">
       <c r="B126"/>
@@ -2392,7 +2634,7 @@
       <c r="E126" s="10"/>
       <c r="F126" s="3"/>
       <c r="G126" s="6"/>
-      <c r="H126" s="10"/>
+      <c r="H126" s="23"/>
     </row>
     <row r="127" spans="2:8">
       <c r="B127"/>
@@ -2401,7 +2643,7 @@
       <c r="E127" s="10"/>
       <c r="F127" s="3"/>
       <c r="G127" s="6"/>
-      <c r="H127" s="10"/>
+      <c r="H127" s="23"/>
     </row>
     <row r="128" spans="2:8">
       <c r="B128"/>
@@ -2410,7 +2652,7 @@
       <c r="E128" s="10"/>
       <c r="F128" s="3"/>
       <c r="G128" s="6"/>
-      <c r="H128" s="10"/>
+      <c r="H128" s="23"/>
     </row>
     <row r="129" spans="2:8">
       <c r="B129"/>
@@ -2419,7 +2661,7 @@
       <c r="E129" s="10"/>
       <c r="F129" s="3"/>
       <c r="G129" s="6"/>
-      <c r="H129" s="10"/>
+      <c r="H129" s="23"/>
     </row>
     <row r="130" spans="2:8">
       <c r="B130"/>
@@ -2428,7 +2670,7 @@
       <c r="E130" s="10"/>
       <c r="F130" s="3"/>
       <c r="G130" s="6"/>
-      <c r="H130" s="10"/>
+      <c r="H130" s="23"/>
     </row>
     <row r="131" spans="2:8">
       <c r="B131"/>
@@ -2437,7 +2679,7 @@
       <c r="E131" s="10"/>
       <c r="F131" s="3"/>
       <c r="G131" s="6"/>
-      <c r="H131" s="10"/>
+      <c r="H131" s="23"/>
     </row>
     <row r="132" spans="2:8">
       <c r="B132"/>
@@ -2446,7 +2688,7 @@
       <c r="E132" s="10"/>
       <c r="F132" s="3"/>
       <c r="G132" s="6"/>
-      <c r="H132" s="10"/>
+      <c r="H132" s="23"/>
     </row>
     <row r="133" spans="2:8">
       <c r="B133"/>
@@ -2455,7 +2697,7 @@
       <c r="E133" s="10"/>
       <c r="F133" s="3"/>
       <c r="G133" s="6"/>
-      <c r="H133" s="10"/>
+      <c r="H133" s="23"/>
     </row>
     <row r="134" spans="2:8">
       <c r="B134"/>
@@ -2464,7 +2706,7 @@
       <c r="E134" s="10"/>
       <c r="F134" s="3"/>
       <c r="G134" s="6"/>
-      <c r="H134" s="10"/>
+      <c r="H134" s="23"/>
     </row>
     <row r="135" spans="2:8">
       <c r="B135"/>
@@ -2473,7 +2715,7 @@
       <c r="E135" s="10"/>
       <c r="F135" s="3"/>
       <c r="G135" s="6"/>
-      <c r="H135" s="10"/>
+      <c r="H135" s="23"/>
     </row>
     <row r="136" spans="2:8">
       <c r="B136"/>
@@ -2482,7 +2724,7 @@
       <c r="E136" s="10"/>
       <c r="F136" s="3"/>
       <c r="G136" s="6"/>
-      <c r="H136" s="10"/>
+      <c r="H136" s="23"/>
     </row>
     <row r="137" spans="2:8">
       <c r="B137"/>
@@ -2491,7 +2733,7 @@
       <c r="E137" s="10"/>
       <c r="F137" s="3"/>
       <c r="G137" s="6"/>
-      <c r="H137" s="10"/>
+      <c r="H137" s="23"/>
     </row>
     <row r="138" spans="2:8">
       <c r="B138"/>
@@ -2500,7 +2742,7 @@
       <c r="E138" s="10"/>
       <c r="F138" s="3"/>
       <c r="G138" s="6"/>
-      <c r="H138" s="10"/>
+      <c r="H138" s="23"/>
     </row>
     <row r="139" spans="2:8">
       <c r="B139"/>
@@ -2509,7 +2751,7 @@
       <c r="E139" s="10"/>
       <c r="F139" s="3"/>
       <c r="G139" s="6"/>
-      <c r="H139" s="10"/>
+      <c r="H139" s="23"/>
     </row>
     <row r="140" spans="2:8">
       <c r="B140"/>
@@ -2518,7 +2760,7 @@
       <c r="E140" s="10"/>
       <c r="F140" s="3"/>
       <c r="G140" s="6"/>
-      <c r="H140" s="10"/>
+      <c r="H140" s="23"/>
     </row>
     <row r="141" spans="2:8">
       <c r="B141"/>
@@ -2527,7 +2769,7 @@
       <c r="E141" s="10"/>
       <c r="F141" s="3"/>
       <c r="G141" s="6"/>
-      <c r="H141" s="10"/>
+      <c r="H141" s="23"/>
     </row>
     <row r="142" spans="2:8">
       <c r="B142"/>
@@ -2536,7 +2778,7 @@
       <c r="E142" s="10"/>
       <c r="F142" s="3"/>
       <c r="G142" s="6"/>
-      <c r="H142" s="10"/>
+      <c r="H142" s="23"/>
     </row>
     <row r="143" spans="2:8">
       <c r="B143"/>
@@ -2545,7 +2787,7 @@
       <c r="E143" s="10"/>
       <c r="F143" s="3"/>
       <c r="G143" s="6"/>
-      <c r="H143" s="10"/>
+      <c r="H143" s="23"/>
     </row>
     <row r="144" spans="2:8">
       <c r="B144"/>
@@ -2554,7 +2796,7 @@
       <c r="E144" s="10"/>
       <c r="F144" s="3"/>
       <c r="G144" s="6"/>
-      <c r="H144" s="10"/>
+      <c r="H144" s="23"/>
     </row>
     <row r="145" spans="2:8">
       <c r="B145"/>
@@ -2563,7 +2805,7 @@
       <c r="E145" s="10"/>
       <c r="F145" s="3"/>
       <c r="G145" s="6"/>
-      <c r="H145" s="10"/>
+      <c r="H145" s="23"/>
     </row>
     <row r="146" spans="2:8">
       <c r="B146"/>
@@ -2572,7 +2814,7 @@
       <c r="E146" s="10"/>
       <c r="F146" s="3"/>
       <c r="G146" s="6"/>
-      <c r="H146" s="10"/>
+      <c r="H146" s="23"/>
     </row>
     <row r="147" spans="2:8">
       <c r="B147"/>
@@ -2581,7 +2823,7 @@
       <c r="E147" s="10"/>
       <c r="F147" s="3"/>
       <c r="G147" s="6"/>
-      <c r="H147" s="10"/>
+      <c r="H147" s="23"/>
     </row>
     <row r="148" spans="2:8">
       <c r="B148"/>
@@ -2590,7 +2832,7 @@
       <c r="E148" s="10"/>
       <c r="F148" s="3"/>
       <c r="G148" s="6"/>
-      <c r="H148" s="10"/>
+      <c r="H148" s="23"/>
     </row>
     <row r="149" spans="2:8">
       <c r="B149"/>
@@ -2599,7 +2841,7 @@
       <c r="E149" s="10"/>
       <c r="F149" s="3"/>
       <c r="G149" s="6"/>
-      <c r="H149" s="10"/>
+      <c r="H149" s="23"/>
     </row>
     <row r="150" spans="2:8">
       <c r="B150"/>
@@ -2608,7 +2850,7 @@
       <c r="E150" s="10"/>
       <c r="F150" s="3"/>
       <c r="G150" s="6"/>
-      <c r="H150" s="10"/>
+      <c r="H150" s="23"/>
     </row>
     <row r="151" spans="2:8">
       <c r="B151"/>
@@ -2617,7 +2859,7 @@
       <c r="E151" s="10"/>
       <c r="F151" s="3"/>
       <c r="G151" s="6"/>
-      <c r="H151" s="10"/>
+      <c r="H151" s="23"/>
     </row>
     <row r="152" spans="2:8">
       <c r="B152"/>
@@ -2626,7 +2868,7 @@
       <c r="E152" s="10"/>
       <c r="F152" s="3"/>
       <c r="G152" s="6"/>
-      <c r="H152" s="10"/>
+      <c r="H152" s="23"/>
     </row>
     <row r="153" spans="2:8">
       <c r="B153"/>
@@ -2635,7 +2877,7 @@
       <c r="E153" s="10"/>
       <c r="F153" s="3"/>
       <c r="G153" s="6"/>
-      <c r="H153" s="10"/>
+      <c r="H153" s="23"/>
     </row>
     <row r="154" spans="2:8">
       <c r="B154"/>
@@ -2644,7 +2886,7 @@
       <c r="E154" s="10"/>
       <c r="F154" s="3"/>
       <c r="G154" s="6"/>
-      <c r="H154" s="10"/>
+      <c r="H154" s="23"/>
     </row>
     <row r="155" spans="2:8">
       <c r="B155"/>
@@ -2653,7 +2895,7 @@
       <c r="E155" s="10"/>
       <c r="F155" s="3"/>
       <c r="G155" s="6"/>
-      <c r="H155" s="10"/>
+      <c r="H155" s="23"/>
     </row>
     <row r="156" spans="2:8">
       <c r="B156"/>
@@ -2662,7 +2904,7 @@
       <c r="E156" s="10"/>
       <c r="F156" s="3"/>
       <c r="G156" s="6"/>
-      <c r="H156" s="10"/>
+      <c r="H156" s="23"/>
     </row>
     <row r="157" spans="2:8">
       <c r="B157"/>
@@ -2671,7 +2913,7 @@
       <c r="E157" s="10"/>
       <c r="F157" s="3"/>
       <c r="G157" s="6"/>
-      <c r="H157" s="10"/>
+      <c r="H157" s="23"/>
     </row>
     <row r="158" spans="2:8">
       <c r="B158"/>
@@ -2680,7 +2922,7 @@
       <c r="E158" s="10"/>
       <c r="F158" s="3"/>
       <c r="G158" s="6"/>
-      <c r="H158" s="10"/>
+      <c r="H158" s="23"/>
     </row>
     <row r="159" spans="2:8">
       <c r="B159"/>
@@ -2689,7 +2931,7 @@
       <c r="E159" s="10"/>
       <c r="F159" s="3"/>
       <c r="G159" s="6"/>
-      <c r="H159" s="10"/>
+      <c r="H159" s="23"/>
     </row>
     <row r="160" spans="2:8">
       <c r="B160"/>
@@ -2698,7 +2940,7 @@
       <c r="E160" s="10"/>
       <c r="F160" s="3"/>
       <c r="G160" s="6"/>
-      <c r="H160" s="10"/>
+      <c r="H160" s="23"/>
     </row>
     <row r="161" spans="2:8">
       <c r="B161"/>
@@ -2707,7 +2949,7 @@
       <c r="E161" s="10"/>
       <c r="F161" s="3"/>
       <c r="G161" s="6"/>
-      <c r="H161" s="10"/>
+      <c r="H161" s="23"/>
     </row>
     <row r="162" spans="2:8">
       <c r="B162"/>
@@ -2716,7 +2958,7 @@
       <c r="E162" s="10"/>
       <c r="F162" s="3"/>
       <c r="G162" s="6"/>
-      <c r="H162" s="10"/>
+      <c r="H162" s="23"/>
     </row>
     <row r="163" spans="2:8">
       <c r="B163"/>
@@ -2725,7 +2967,7 @@
       <c r="E163" s="10"/>
       <c r="F163" s="3"/>
       <c r="G163" s="6"/>
-      <c r="H163" s="10"/>
+      <c r="H163" s="23"/>
     </row>
     <row r="164" spans="2:8">
       <c r="B164"/>
@@ -2734,7 +2976,7 @@
       <c r="E164" s="10"/>
       <c r="F164" s="3"/>
       <c r="G164" s="6"/>
-      <c r="H164" s="10"/>
+      <c r="H164" s="23"/>
     </row>
     <row r="165" spans="2:8">
       <c r="B165"/>
@@ -2743,7 +2985,7 @@
       <c r="E165" s="10"/>
       <c r="F165" s="3"/>
       <c r="G165" s="6"/>
-      <c r="H165" s="10"/>
+      <c r="H165" s="23"/>
     </row>
     <row r="166" spans="2:8">
       <c r="B166"/>
@@ -2752,7 +2994,7 @@
       <c r="E166" s="10"/>
       <c r="F166" s="3"/>
       <c r="G166" s="6"/>
-      <c r="H166" s="10"/>
+      <c r="H166" s="23"/>
     </row>
     <row r="167" spans="2:8">
       <c r="B167"/>
@@ -2761,7 +3003,7 @@
       <c r="E167" s="10"/>
       <c r="F167" s="3"/>
       <c r="G167" s="6"/>
-      <c r="H167" s="10"/>
+      <c r="H167" s="23"/>
     </row>
     <row r="168" spans="2:8">
       <c r="B168"/>
@@ -2770,7 +3012,7 @@
       <c r="E168" s="10"/>
       <c r="F168" s="3"/>
       <c r="G168" s="6"/>
-      <c r="H168" s="10"/>
+      <c r="H168" s="23"/>
     </row>
     <row r="169" spans="2:8">
       <c r="B169"/>
@@ -2779,7 +3021,7 @@
       <c r="E169" s="10"/>
       <c r="F169" s="3"/>
       <c r="G169" s="6"/>
-      <c r="H169" s="10"/>
+      <c r="H169" s="23"/>
     </row>
     <row r="170" spans="2:8">
       <c r="B170"/>
@@ -2788,7 +3030,7 @@
       <c r="E170" s="10"/>
       <c r="F170" s="3"/>
       <c r="G170" s="6"/>
-      <c r="H170" s="10"/>
+      <c r="H170" s="23"/>
     </row>
     <row r="171" spans="2:8">
       <c r="B171"/>
@@ -2797,7 +3039,7 @@
       <c r="E171" s="10"/>
       <c r="F171" s="3"/>
       <c r="G171" s="6"/>
-      <c r="H171" s="10"/>
+      <c r="H171" s="23"/>
     </row>
     <row r="172" spans="2:8">
       <c r="B172"/>
@@ -2806,7 +3048,7 @@
       <c r="E172" s="10"/>
       <c r="F172" s="3"/>
       <c r="G172" s="6"/>
-      <c r="H172" s="10"/>
+      <c r="H172" s="23"/>
     </row>
     <row r="173" spans="2:8">
       <c r="B173"/>
@@ -2815,7 +3057,7 @@
       <c r="E173" s="10"/>
       <c r="F173" s="3"/>
       <c r="G173" s="6"/>
-      <c r="H173" s="10"/>
+      <c r="H173" s="23"/>
     </row>
     <row r="174" spans="2:8">
       <c r="B174"/>
@@ -2824,7 +3066,7 @@
       <c r="E174" s="10"/>
       <c r="F174" s="3"/>
       <c r="G174" s="6"/>
-      <c r="H174" s="10"/>
+      <c r="H174" s="23"/>
     </row>
     <row r="175" spans="2:8">
       <c r="B175"/>
@@ -2833,7 +3075,7 @@
       <c r="E175" s="10"/>
       <c r="F175" s="3"/>
       <c r="G175" s="6"/>
-      <c r="H175" s="10"/>
+      <c r="H175" s="23"/>
     </row>
     <row r="176" spans="2:8">
       <c r="B176"/>
@@ -2842,7 +3084,7 @@
       <c r="E176" s="10"/>
       <c r="F176" s="3"/>
       <c r="G176" s="6"/>
-      <c r="H176" s="10"/>
+      <c r="H176" s="23"/>
     </row>
     <row r="177" spans="2:8">
       <c r="B177"/>
@@ -2851,7 +3093,7 @@
       <c r="E177" s="10"/>
       <c r="F177" s="3"/>
       <c r="G177" s="6"/>
-      <c r="H177" s="10"/>
+      <c r="H177" s="23"/>
     </row>
     <row r="178" spans="2:8">
       <c r="B178"/>
@@ -2860,7 +3102,7 @@
       <c r="E178" s="10"/>
       <c r="F178" s="3"/>
       <c r="G178" s="6"/>
-      <c r="H178" s="10"/>
+      <c r="H178" s="23"/>
     </row>
     <row r="179" spans="2:8">
       <c r="B179"/>
@@ -2869,7 +3111,7 @@
       <c r="E179" s="10"/>
       <c r="F179" s="3"/>
       <c r="G179" s="6"/>
-      <c r="H179" s="10"/>
+      <c r="H179" s="23"/>
     </row>
     <row r="180" spans="2:8">
       <c r="B180"/>
@@ -2878,7 +3120,7 @@
       <c r="E180" s="10"/>
       <c r="F180" s="3"/>
       <c r="G180" s="6"/>
-      <c r="H180" s="10"/>
+      <c r="H180" s="23"/>
     </row>
     <row r="181" spans="2:8">
       <c r="B181"/>
@@ -2887,7 +3129,7 @@
       <c r="E181" s="10"/>
       <c r="F181" s="3"/>
       <c r="G181" s="6"/>
-      <c r="H181" s="10"/>
+      <c r="H181" s="23"/>
     </row>
     <row r="182" spans="2:8">
       <c r="B182"/>
@@ -2896,7 +3138,7 @@
       <c r="E182" s="10"/>
       <c r="F182" s="3"/>
       <c r="G182" s="6"/>
-      <c r="H182" s="10"/>
+      <c r="H182" s="23"/>
     </row>
     <row r="183" spans="2:8">
       <c r="B183"/>
@@ -2905,7 +3147,7 @@
       <c r="E183" s="10"/>
       <c r="F183" s="3"/>
       <c r="G183" s="6"/>
-      <c r="H183" s="10"/>
+      <c r="H183" s="23"/>
     </row>
     <row r="184" spans="2:8">
       <c r="B184"/>
@@ -2914,7 +3156,7 @@
       <c r="E184" s="10"/>
       <c r="F184" s="3"/>
       <c r="G184" s="6"/>
-      <c r="H184" s="10"/>
+      <c r="H184" s="23"/>
     </row>
     <row r="185" spans="2:8">
       <c r="B185"/>
@@ -2923,7 +3165,7 @@
       <c r="E185" s="10"/>
       <c r="F185" s="3"/>
       <c r="G185" s="6"/>
-      <c r="H185" s="10"/>
+      <c r="H185" s="23"/>
     </row>
     <row r="186" spans="2:8">
       <c r="B186"/>
@@ -2932,7 +3174,7 @@
       <c r="E186" s="10"/>
       <c r="F186" s="3"/>
       <c r="G186" s="6"/>
-      <c r="H186" s="10"/>
+      <c r="H186" s="23"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1"/>
